--- a/frontend/public/excel_folder/S01.xlsx
+++ b/frontend/public/excel_folder/S01.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\M041917-02\計畫管理\109年\1向陽\向陽提供\向陽報告(週報)\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49162136-F059-49C2-B36A-ED29433ACE85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="1-1" sheetId="8" r:id="rId1"/>
@@ -24,7 +18,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'1-3'!$A$1:$T$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1-4'!$A$1:$T$27</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="58">
   <si>
     <t>工程名稱</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -209,11 +203,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>圓池外填土整地、循環池配置管路組裝及
-池內整地夯實</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>向陽多元一期升一2區</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -236,11 +225,26 @@
     <t>備註</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>圓池外填土整地、循環池配置管路組裝及池內整地夯實</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>圓池外填土整地、循環池配置管路組裝及池內整地夯實</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>圓池外填土整地、循環池配置管路組裝及池內整地夯實</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0&quot;天&quot;"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
@@ -1037,6 +1041,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="177" fontId="8" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1092,16 +1106,6 @@
     <xf numFmtId="179" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1410,43 +1414,43 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD820322-9816-4313-B4B2-676B9682E89F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:S28"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A3" zoomScale="70" zoomScaleNormal="50" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.46484375" customWidth="1"/>
-    <col min="2" max="2" width="10.73046875" customWidth="1"/>
-    <col min="3" max="3" width="51.46484375" customWidth="1"/>
-    <col min="4" max="4" width="8.86328125" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.73046875" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.06640625" customWidth="1"/>
-    <col min="9" max="9" width="9.796875" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" customWidth="1"/>
-    <col min="11" max="11" width="10.796875" customWidth="1"/>
-    <col min="12" max="12" width="9.19921875" customWidth="1"/>
-    <col min="13" max="13" width="10.1328125" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="51.5" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="10.75" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="10.125" customWidth="1"/>
+    <col min="9" max="9" width="9.75" customWidth="1"/>
+    <col min="10" max="10" width="9.375" customWidth="1"/>
+    <col min="11" max="11" width="10.75" customWidth="1"/>
+    <col min="12" max="12" width="9.25" customWidth="1"/>
+    <col min="13" max="13" width="10.125" customWidth="1"/>
     <col min="14" max="14" width="10" customWidth="1"/>
-    <col min="15" max="15" width="9.19921875" customWidth="1"/>
-    <col min="16" max="16" width="8.9296875" customWidth="1"/>
-    <col min="17" max="17" width="9.86328125" customWidth="1"/>
-    <col min="18" max="18" width="11.9296875" customWidth="1"/>
-    <col min="19" max="19" width="16.265625" customWidth="1"/>
+    <col min="15" max="15" width="9.25" customWidth="1"/>
+    <col min="16" max="16" width="8.875" customWidth="1"/>
+    <col min="17" max="17" width="9.875" customWidth="1"/>
+    <col min="18" max="18" width="11.875" customWidth="1"/>
+    <col min="19" max="19" width="16.25" customWidth="1"/>
     <col min="21" max="21" width="13" customWidth="1"/>
-    <col min="22" max="22" width="11.265625" customWidth="1"/>
+    <col min="22" max="22" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -1457,11 +1461,11 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="67"/>
+    <row r="2" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="70"/>
       <c r="C2" s="23" t="s">
         <v>47</v>
       </c>
@@ -1469,24 +1473,24 @@
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
-      <c r="H2" s="77">
+      <c r="H2" s="80">
         <v>1</v>
       </c>
-      <c r="I2" s="77"/>
+      <c r="I2" s="80"/>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
       <c r="L2" s="24"/>
       <c r="M2" s="24"/>
       <c r="N2" s="24"/>
-      <c r="O2" s="72" t="s">
+      <c r="O2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="74" t="s">
+      <c r="P2" s="76"/>
+      <c r="Q2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="75"/>
-      <c r="S2" s="76"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="79"/>
       <c r="T2" s="2"/>
       <c r="U2" s="4"/>
       <c r="V2" s="5" t="s">
@@ -1497,11 +1501,11 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="27.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="68" t="s">
+    <row r="3" spans="1:26" ht="27.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="69"/>
+      <c r="B3" s="72"/>
       <c r="C3" s="25" t="s">
         <v>5</v>
       </c>
@@ -1518,13 +1522,13 @@
       <c r="N3" s="26"/>
       <c r="O3" s="26"/>
       <c r="P3" s="26"/>
-      <c r="Q3" s="70" t="s">
+      <c r="Q3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="71"/>
-      <c r="S3" s="52">
+      <c r="R3" s="74"/>
+      <c r="S3" s="52" t="e">
         <f>SUMPRODUCT(B6:B23,S6:S23)</f>
-        <v>0.03</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T3" s="2"/>
       <c r="U3" s="7" t="s">
@@ -1538,7 +1542,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
@@ -1549,36 +1553,36 @@
         <v>11</v>
       </c>
       <c r="D4" s="43"/>
-      <c r="E4" s="64">
+      <c r="E4" s="67">
         <v>44501</v>
       </c>
-      <c r="F4" s="65"/>
-      <c r="G4" s="64">
+      <c r="F4" s="68"/>
+      <c r="G4" s="67">
         <v>44502</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="64">
+      <c r="H4" s="68"/>
+      <c r="I4" s="67">
         <v>44503</v>
       </c>
-      <c r="J4" s="65"/>
-      <c r="K4" s="64">
+      <c r="J4" s="68"/>
+      <c r="K4" s="67">
         <v>44504</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="64">
+      <c r="L4" s="68"/>
+      <c r="M4" s="67">
         <v>44505</v>
       </c>
-      <c r="N4" s="65"/>
-      <c r="O4" s="64">
+      <c r="N4" s="68"/>
+      <c r="O4" s="67">
         <v>44506</v>
       </c>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="64">
+      <c r="P4" s="68"/>
+      <c r="Q4" s="67">
         <v>44507</v>
       </c>
-      <c r="R4" s="65"/>
+      <c r="R4" s="68"/>
       <c r="S4" s="53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T4" s="10"/>
       <c r="U4" s="11" t="s">
@@ -1592,7 +1596,7 @@
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
     </row>
-    <row r="5" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>26</v>
       </c>
@@ -1649,7 +1653,7 @@
         <v>18</v>
       </c>
       <c r="S5" s="54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T5" s="12"/>
       <c r="U5" s="10"/>
@@ -1659,7 +1663,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="31.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:26" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
         <v>1</v>
       </c>
@@ -1672,12 +1676,12 @@
       <c r="D6" s="36">
         <v>46</v>
       </c>
-      <c r="E6" s="28">
-        <v>46</v>
-      </c>
-      <c r="F6" s="40">
+      <c r="E6" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="40" t="e">
         <f>IF(E6/$D$6="- ",0,E6/$D$6)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="40">
@@ -1709,9 +1713,9 @@
         <f>IF(Q6/$D$6="- ",0,Q6/$D$6)</f>
         <v>0</v>
       </c>
-      <c r="S6" s="55">
+      <c r="S6" s="55" t="e">
         <f>MAX(F6,H6,J6,L6,N6,P6,R6)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="13" t="s">
@@ -1725,7 +1729,7 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30">
         <v>2</v>
       </c>
@@ -1738,10 +1742,12 @@
       <c r="D7" s="36">
         <v>16</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="40">
+      <c r="E7" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="40" t="e">
         <f>IF(E7/$D$7="- ",0,E7/$D$7)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="40">
@@ -1773,9 +1779,9 @@
         <f>IF(Q7/$D$7="- ",0,Q7/$D$7)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="55">
+      <c r="S7" s="55" t="e">
         <f t="shared" ref="S7:S27" si="0">MAX(F7,H7,J7,L7,N7,P7,R7)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
@@ -1785,7 +1791,7 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
         <v>3</v>
       </c>
@@ -1798,10 +1804,12 @@
       <c r="D8" s="36">
         <v>5</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="40">
+      <c r="E8" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="40" t="e">
         <f>IF(E8/$D$8="- ",0,E8/$D$8)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="40">
@@ -1833,9 +1841,9 @@
         <f>IF(Q8/$D$8="- ",0,Q8/$D$8)</f>
         <v>0</v>
       </c>
-      <c r="S8" s="55">
+      <c r="S8" s="55" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T8" s="2"/>
       <c r="U8" s="15" t="s">
@@ -1849,7 +1857,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="35.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:26" ht="35.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>4</v>
       </c>
@@ -1862,10 +1870,12 @@
       <c r="D9" s="36">
         <v>5</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="40">
+      <c r="E9" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="40" t="e">
         <f>IF(E9/$D$9="- ",0,E9/$D$9)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="40">
@@ -1897,9 +1907,9 @@
         <f>IF(Q9/$D$9="- ",0,Q9/$D$9)</f>
         <v>0</v>
       </c>
-      <c r="S9" s="55">
+      <c r="S9" s="55" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
@@ -1909,7 +1919,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:26" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
         <v>5</v>
       </c>
@@ -1922,10 +1932,12 @@
       <c r="D10" s="36">
         <v>27</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="40">
+      <c r="E10" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="40" t="e">
         <f>IF(E10/$D$10="- ",0,E10/$D$10)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="40">
@@ -1957,9 +1969,9 @@
         <f>IF(Q10/$D$10="- ",0,Q10/$D$10)</f>
         <v>0</v>
       </c>
-      <c r="S10" s="55">
+      <c r="S10" s="55" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
@@ -1969,7 +1981,7 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>6</v>
       </c>
@@ -1982,10 +1994,12 @@
       <c r="D11" s="36">
         <v>11</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="40">
+      <c r="E11" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="40" t="e">
         <f>IF(E11/$D$11="- ",0,E11/$D$11)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="40">
@@ -2017,9 +2031,9 @@
         <f>IF(Q11/$D$11="- ",0,Q11/$D$11)</f>
         <v>0</v>
       </c>
-      <c r="S11" s="55">
+      <c r="S11" s="55" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
@@ -2029,7 +2043,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="29.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:26" ht="29.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>7</v>
       </c>
@@ -2042,10 +2056,12 @@
       <c r="D12" s="36">
         <v>22</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="40">
+      <c r="E12" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="40" t="e">
         <f>IF(E12/$D$12="- ",0,E12/$D$12)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="40">
@@ -2077,9 +2093,9 @@
         <f>IF(Q12/$D$12="- ",0,Q12/$D$12)</f>
         <v>0</v>
       </c>
-      <c r="S12" s="55">
+      <c r="S12" s="55" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
@@ -2089,7 +2105,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="35.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:26" ht="35.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
         <v>8</v>
       </c>
@@ -2102,10 +2118,12 @@
       <c r="D13" s="36">
         <v>11</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="40">
+      <c r="E13" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="40" t="e">
         <f>IF(E13/$D$13="- ",0,E13/$D$13)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="40">
@@ -2137,9 +2155,9 @@
         <f>IF(Q13/$D$13="- ",0,Q13/$D$13)</f>
         <v>0</v>
       </c>
-      <c r="S13" s="55">
+      <c r="S13" s="55" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
@@ -2149,7 +2167,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="35.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:26" ht="35.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>9</v>
       </c>
@@ -2162,10 +2180,12 @@
       <c r="D14" s="36">
         <v>11</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="40">
+      <c r="E14" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="40" t="e">
         <f>IF(E14/$D$14="- ",0,E14/$D$14)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="40">
@@ -2197,9 +2217,9 @@
         <f>IF(Q14/$D$14="- ",0,Q14/$D$14)</f>
         <v>0</v>
       </c>
-      <c r="S14" s="55">
+      <c r="S14" s="55" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
@@ -2209,7 +2229,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="35.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:26" ht="35.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
         <v>10</v>
       </c>
@@ -2222,10 +2242,12 @@
       <c r="D15" s="36">
         <v>65</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="40">
+      <c r="E15" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="40" t="e">
         <f>IF(E15/$D$15="- ",0,E15/$D$15)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="40">
@@ -2257,9 +2279,9 @@
         <f>IF(Q15/$D$15="- ",0,Q15/$D$15)</f>
         <v>0</v>
       </c>
-      <c r="S15" s="55">
+      <c r="S15" s="55" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
@@ -2269,7 +2291,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="43.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:26" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
         <v>11</v>
       </c>
@@ -2277,7 +2299,7 @@
         <v>0.05</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D16" s="36">
         <v>11</v>
@@ -2329,7 +2351,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30">
         <v>12</v>
       </c>
@@ -2389,7 +2411,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="31.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:26" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
         <v>13</v>
       </c>
@@ -2449,7 +2471,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30">
         <v>14</v>
       </c>
@@ -2509,7 +2531,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" ht="28.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:26" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>15</v>
       </c>
@@ -2569,7 +2591,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="30">
         <v>16</v>
       </c>
@@ -2629,7 +2651,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>17</v>
       </c>
@@ -2689,7 +2711,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="26.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:26" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="30">
         <v>18</v>
       </c>
@@ -2751,7 +2773,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="35.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:26" ht="35.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
         <v>39</v>
       </c>
@@ -2816,7 +2838,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="28.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:26" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="62">
         <v>1</v>
       </c>
@@ -2878,7 +2900,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="26.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:26" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="30">
         <v>2</v>
       </c>
@@ -2938,7 +2960,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:26" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="63">
         <v>3</v>
       </c>
@@ -2998,40 +3020,33 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="47.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="78" t="s">
+    <row r="28" spans="1:26" ht="47.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78" t="s">
-        <v>54</v>
-      </c>
       <c r="D28" s="61"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="79"/>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="79"/>
-      <c r="R28" s="80"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="65"/>
+      <c r="R28" s="66"/>
       <c r="S28" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -3045,6 +3060,13 @@
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.1875" right="0.11811023622047245" top="0.47499999999999998" bottom="0.5625" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3056,36 +3078,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B03CAAC-4816-4274-A823-C20F78A670BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.46484375" customWidth="1"/>
-    <col min="2" max="2" width="10.73046875" customWidth="1"/>
-    <col min="3" max="3" width="51.46484375" customWidth="1"/>
-    <col min="4" max="4" width="8.86328125" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.06640625" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.73046875" customWidth="1"/>
-    <col min="9" max="9" width="9.796875" customWidth="1"/>
-    <col min="10" max="10" width="9.59765625" customWidth="1"/>
-    <col min="11" max="11" width="10.796875" customWidth="1"/>
-    <col min="12" max="12" width="8.9296875" customWidth="1"/>
-    <col min="13" max="13" width="10.1328125" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="51.5" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="10.125" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="8.75" customWidth="1"/>
+    <col min="9" max="9" width="9.75" customWidth="1"/>
+    <col min="10" max="10" width="9.625" customWidth="1"/>
+    <col min="11" max="11" width="10.75" customWidth="1"/>
+    <col min="12" max="12" width="8.875" customWidth="1"/>
+    <col min="13" max="13" width="10.125" customWidth="1"/>
     <col min="14" max="14" width="10" customWidth="1"/>
-    <col min="15" max="15" width="10.3984375" customWidth="1"/>
-    <col min="16" max="16" width="8.9296875" customWidth="1"/>
-    <col min="17" max="17" width="9.86328125" customWidth="1"/>
-    <col min="18" max="18" width="9.796875" customWidth="1"/>
-    <col min="19" max="19" width="21.19921875" customWidth="1"/>
+    <col min="15" max="15" width="10.375" customWidth="1"/>
+    <col min="16" max="16" width="8.875" customWidth="1"/>
+    <col min="17" max="17" width="9.875" customWidth="1"/>
+    <col min="18" max="18" width="9.75" customWidth="1"/>
+    <col min="19" max="19" width="21.25" customWidth="1"/>
     <col min="21" max="21" width="13" customWidth="1"/>
-    <col min="22" max="22" width="11.265625" customWidth="1"/>
+    <col min="22" max="22" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -3096,36 +3118,36 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="67"/>
+    <row r="2" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="70"/>
       <c r="C2" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
-      <c r="H2" s="77">
+      <c r="H2" s="80">
         <v>1</v>
       </c>
-      <c r="I2" s="77"/>
+      <c r="I2" s="80"/>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
       <c r="L2" s="24"/>
       <c r="M2" s="24"/>
       <c r="N2" s="24"/>
-      <c r="O2" s="72" t="s">
+      <c r="O2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="74" t="s">
+      <c r="P2" s="76"/>
+      <c r="Q2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="75"/>
-      <c r="S2" s="76"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="79"/>
       <c r="T2" s="2"/>
       <c r="U2" s="4"/>
       <c r="V2" s="5" t="s">
@@ -3136,11 +3158,11 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="27.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="68" t="s">
+    <row r="3" spans="1:26" ht="27.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="69"/>
+      <c r="B3" s="72"/>
       <c r="C3" s="25" t="s">
         <v>5</v>
       </c>
@@ -3157,10 +3179,10 @@
       <c r="N3" s="26"/>
       <c r="O3" s="26"/>
       <c r="P3" s="26"/>
-      <c r="Q3" s="70" t="s">
+      <c r="Q3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="71"/>
+      <c r="R3" s="74"/>
       <c r="S3" s="52">
         <f>SUMPRODUCT(B6:B23,S6:S23)</f>
         <v>0.03</v>
@@ -3177,7 +3199,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
@@ -3188,36 +3210,36 @@
         <v>11</v>
       </c>
       <c r="D4" s="43"/>
-      <c r="E4" s="64">
+      <c r="E4" s="67">
         <v>44501</v>
       </c>
-      <c r="F4" s="65"/>
-      <c r="G4" s="64">
+      <c r="F4" s="68"/>
+      <c r="G4" s="67">
         <v>44502</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="64">
+      <c r="H4" s="68"/>
+      <c r="I4" s="67">
         <v>44503</v>
       </c>
-      <c r="J4" s="65"/>
-      <c r="K4" s="64">
+      <c r="J4" s="68"/>
+      <c r="K4" s="67">
         <v>44504</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="64">
+      <c r="L4" s="68"/>
+      <c r="M4" s="67">
         <v>44505</v>
       </c>
-      <c r="N4" s="65"/>
-      <c r="O4" s="64">
+      <c r="N4" s="68"/>
+      <c r="O4" s="67">
         <v>44506</v>
       </c>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="64">
+      <c r="P4" s="68"/>
+      <c r="Q4" s="67">
         <v>44507</v>
       </c>
-      <c r="R4" s="65"/>
+      <c r="R4" s="68"/>
       <c r="S4" s="53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T4" s="10"/>
       <c r="U4" s="11" t="s">
@@ -3231,7 +3253,7 @@
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
     </row>
-    <row r="5" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>26</v>
       </c>
@@ -3288,7 +3310,7 @@
         <v>18</v>
       </c>
       <c r="S5" s="54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T5" s="12"/>
       <c r="U5" s="10"/>
@@ -3298,7 +3320,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="31.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:26" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
         <v>1</v>
       </c>
@@ -3364,7 +3386,7 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30">
         <v>2</v>
       </c>
@@ -3424,7 +3446,7 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
         <v>3</v>
       </c>
@@ -3488,7 +3510,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="35.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:26" ht="35.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>4</v>
       </c>
@@ -3548,7 +3570,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:26" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
         <v>5</v>
       </c>
@@ -3608,7 +3630,7 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>6</v>
       </c>
@@ -3668,7 +3690,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="29.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:26" ht="29.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>7</v>
       </c>
@@ -3728,7 +3750,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="35.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:26" ht="35.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
         <v>8</v>
       </c>
@@ -3788,7 +3810,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="35.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:26" ht="35.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>9</v>
       </c>
@@ -3848,7 +3870,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="35.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:26" ht="35.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
         <v>10</v>
       </c>
@@ -3908,7 +3930,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="43.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:26" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
         <v>11</v>
       </c>
@@ -3916,7 +3938,7 @@
         <v>0.05</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D16" s="36">
         <v>11</v>
@@ -3968,7 +3990,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30">
         <v>12</v>
       </c>
@@ -4028,7 +4050,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="31.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:26" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
         <v>13</v>
       </c>
@@ -4088,7 +4110,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30">
         <v>14</v>
       </c>
@@ -4148,7 +4170,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" ht="28.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:26" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>15</v>
       </c>
@@ -4208,7 +4230,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="30">
         <v>16</v>
       </c>
@@ -4268,7 +4290,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>17</v>
       </c>
@@ -4328,7 +4350,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="26.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:26" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="30">
         <v>18</v>
       </c>
@@ -4390,7 +4412,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="35.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:26" ht="35.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
         <v>39</v>
       </c>
@@ -4455,7 +4477,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:26" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="62">
         <v>1</v>
       </c>
@@ -4517,7 +4539,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="38.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:26" ht="38.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="30">
         <v>2</v>
       </c>
@@ -4577,7 +4599,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:26" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="63">
         <v>3</v>
       </c>
@@ -4637,40 +4659,33 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="78" t="s">
+    <row r="28" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78" t="s">
-        <v>54</v>
-      </c>
       <c r="D28" s="61"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="79"/>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="79"/>
-      <c r="R28" s="80"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="65"/>
+      <c r="R28" s="66"/>
       <c r="S28" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="A2:B2"/>
@@ -4684,6 +4699,13 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.47499999999999998" bottom="0.61250000000000004" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4695,35 +4717,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DC2E6C-25D5-4A46-AD78-0013038EBDC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.46484375" customWidth="1"/>
-    <col min="2" max="2" width="10.73046875" customWidth="1"/>
-    <col min="3" max="3" width="51.46484375" customWidth="1"/>
-    <col min="4" max="4" width="8.86328125" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.3984375" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="9" width="9.796875" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" customWidth="1"/>
-    <col min="11" max="11" width="10.796875" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.1328125" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="51.5" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="9" width="9.75" customWidth="1"/>
+    <col min="10" max="10" width="9.375" customWidth="1"/>
+    <col min="11" max="11" width="10.75" customWidth="1"/>
+    <col min="12" max="12" width="9.375" customWidth="1"/>
+    <col min="13" max="13" width="10.125" customWidth="1"/>
     <col min="14" max="14" width="10" customWidth="1"/>
-    <col min="15" max="15" width="10.3984375" customWidth="1"/>
-    <col min="16" max="16" width="8.9296875" customWidth="1"/>
-    <col min="17" max="17" width="9.86328125" customWidth="1"/>
-    <col min="18" max="18" width="9.796875" customWidth="1"/>
-    <col min="19" max="19" width="20.265625" customWidth="1"/>
+    <col min="15" max="15" width="10.375" customWidth="1"/>
+    <col min="16" max="16" width="8.875" customWidth="1"/>
+    <col min="17" max="17" width="9.875" customWidth="1"/>
+    <col min="18" max="18" width="9.75" customWidth="1"/>
+    <col min="19" max="19" width="20.25" customWidth="1"/>
     <col min="21" max="21" width="13" customWidth="1"/>
-    <col min="22" max="22" width="11.265625" customWidth="1"/>
+    <col min="22" max="22" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -4734,36 +4756,36 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="67"/>
+    <row r="2" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="70"/>
       <c r="C2" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
-      <c r="H2" s="77">
+      <c r="H2" s="80">
         <v>1</v>
       </c>
-      <c r="I2" s="77"/>
+      <c r="I2" s="80"/>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
       <c r="L2" s="24"/>
       <c r="M2" s="24"/>
       <c r="N2" s="24"/>
-      <c r="O2" s="72" t="s">
+      <c r="O2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="74" t="s">
+      <c r="P2" s="76"/>
+      <c r="Q2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="75"/>
-      <c r="S2" s="76"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="79"/>
       <c r="T2" s="2"/>
       <c r="U2" s="4"/>
       <c r="V2" s="5" t="s">
@@ -4774,11 +4796,11 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="27.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="68" t="s">
+    <row r="3" spans="1:26" ht="27.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="69"/>
+      <c r="B3" s="72"/>
       <c r="C3" s="25" t="s">
         <v>5</v>
       </c>
@@ -4795,10 +4817,10 @@
       <c r="N3" s="26"/>
       <c r="O3" s="26"/>
       <c r="P3" s="26"/>
-      <c r="Q3" s="70" t="s">
+      <c r="Q3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="71"/>
+      <c r="R3" s="74"/>
       <c r="S3" s="52">
         <f>SUMPRODUCT(B6:B23,S6:S23)</f>
         <v>0.03</v>
@@ -4815,7 +4837,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
@@ -4826,36 +4848,36 @@
         <v>11</v>
       </c>
       <c r="D4" s="43"/>
-      <c r="E4" s="64">
+      <c r="E4" s="67">
         <v>44501</v>
       </c>
-      <c r="F4" s="65"/>
-      <c r="G4" s="64">
+      <c r="F4" s="68"/>
+      <c r="G4" s="67">
         <v>44502</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="64">
+      <c r="H4" s="68"/>
+      <c r="I4" s="67">
         <v>44503</v>
       </c>
-      <c r="J4" s="65"/>
-      <c r="K4" s="64">
+      <c r="J4" s="68"/>
+      <c r="K4" s="67">
         <v>44504</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="64">
+      <c r="L4" s="68"/>
+      <c r="M4" s="67">
         <v>44505</v>
       </c>
-      <c r="N4" s="65"/>
-      <c r="O4" s="64">
+      <c r="N4" s="68"/>
+      <c r="O4" s="67">
         <v>44506</v>
       </c>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="64">
+      <c r="P4" s="68"/>
+      <c r="Q4" s="67">
         <v>44507</v>
       </c>
-      <c r="R4" s="65"/>
+      <c r="R4" s="68"/>
       <c r="S4" s="53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T4" s="10"/>
       <c r="U4" s="11" t="s">
@@ -4869,7 +4891,7 @@
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
     </row>
-    <row r="5" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>26</v>
       </c>
@@ -4926,7 +4948,7 @@
         <v>18</v>
       </c>
       <c r="S5" s="54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T5" s="12"/>
       <c r="U5" s="10"/>
@@ -4936,7 +4958,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="31.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:26" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
         <v>1</v>
       </c>
@@ -5002,7 +5024,7 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30">
         <v>2</v>
       </c>
@@ -5062,7 +5084,7 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
         <v>3</v>
       </c>
@@ -5126,7 +5148,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="35.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:26" ht="35.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>4</v>
       </c>
@@ -5186,7 +5208,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:26" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
         <v>5</v>
       </c>
@@ -5246,7 +5268,7 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>6</v>
       </c>
@@ -5306,7 +5328,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="29.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:26" ht="29.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>7</v>
       </c>
@@ -5366,7 +5388,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="35.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:26" ht="35.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
         <v>8</v>
       </c>
@@ -5426,7 +5448,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="35.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:26" ht="35.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>9</v>
       </c>
@@ -5486,7 +5508,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="35.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:26" ht="35.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
         <v>10</v>
       </c>
@@ -5546,7 +5568,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="43.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:26" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
         <v>11</v>
       </c>
@@ -5554,7 +5576,7 @@
         <v>0.05</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D16" s="36">
         <v>11</v>
@@ -5606,7 +5628,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30">
         <v>12</v>
       </c>
@@ -5666,7 +5688,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="31.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:26" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
         <v>13</v>
       </c>
@@ -5726,7 +5748,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30">
         <v>14</v>
       </c>
@@ -5786,7 +5808,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" ht="28.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:26" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>15</v>
       </c>
@@ -5846,7 +5868,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="30">
         <v>16</v>
       </c>
@@ -5906,7 +5928,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>17</v>
       </c>
@@ -5966,7 +5988,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="26.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:26" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="30">
         <v>18</v>
       </c>
@@ -6028,7 +6050,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="35.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:26" ht="35.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
         <v>39</v>
       </c>
@@ -6093,7 +6115,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:26" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="62">
         <v>1</v>
       </c>
@@ -6155,7 +6177,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="34.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:26" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="30">
         <v>2</v>
       </c>
@@ -6215,7 +6237,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:26" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="63">
         <v>3</v>
       </c>
@@ -6275,40 +6297,33 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="78" t="s">
+    <row r="28" spans="1:26" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78" t="s">
-        <v>54</v>
-      </c>
       <c r="D28" s="61"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="79"/>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="79"/>
-      <c r="R28" s="80"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="65"/>
+      <c r="R28" s="66"/>
       <c r="S28" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="A2:B2"/>
@@ -6322,6 +6337,13 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.47499999999999998" bottom="0.61250000000000004" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6333,36 +6355,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D9121F-6E2F-4926-8995-89D4FDCA21BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView view="pageLayout" topLeftCell="A3" zoomScale="70" zoomScaleNormal="50" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.46484375" customWidth="1"/>
-    <col min="2" max="2" width="10.73046875" customWidth="1"/>
-    <col min="3" max="3" width="51.46484375" customWidth="1"/>
-    <col min="4" max="4" width="8.86328125" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.265625" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.59765625" customWidth="1"/>
-    <col min="9" max="9" width="9.796875" customWidth="1"/>
-    <col min="10" max="10" width="9.19921875" customWidth="1"/>
-    <col min="11" max="11" width="10.796875" customWidth="1"/>
-    <col min="12" max="12" width="8.53125" customWidth="1"/>
-    <col min="13" max="13" width="10.1328125" customWidth="1"/>
-    <col min="14" max="14" width="11.46484375" customWidth="1"/>
-    <col min="15" max="15" width="10.3984375" customWidth="1"/>
-    <col min="16" max="16" width="8.9296875" customWidth="1"/>
-    <col min="17" max="17" width="9.86328125" customWidth="1"/>
-    <col min="18" max="18" width="11.53125" customWidth="1"/>
-    <col min="19" max="19" width="20.3984375" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="51.5" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="9.25" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="8.625" customWidth="1"/>
+    <col min="9" max="9" width="9.75" customWidth="1"/>
+    <col min="10" max="10" width="9.25" customWidth="1"/>
+    <col min="11" max="11" width="10.75" customWidth="1"/>
+    <col min="12" max="12" width="8.5" customWidth="1"/>
+    <col min="13" max="13" width="10.125" customWidth="1"/>
+    <col min="14" max="14" width="11.5" customWidth="1"/>
+    <col min="15" max="15" width="10.375" customWidth="1"/>
+    <col min="16" max="16" width="8.875" customWidth="1"/>
+    <col min="17" max="17" width="9.875" customWidth="1"/>
+    <col min="18" max="18" width="11.5" customWidth="1"/>
+    <col min="19" max="19" width="20.375" customWidth="1"/>
     <col min="21" max="21" width="13" customWidth="1"/>
-    <col min="22" max="22" width="11.265625" customWidth="1"/>
+    <col min="22" max="22" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -6373,11 +6395,11 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="67"/>
+    <row r="2" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="70"/>
       <c r="C2" s="23" t="s">
         <v>16</v>
       </c>
@@ -6385,24 +6407,24 @@
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
-      <c r="H2" s="77">
+      <c r="H2" s="80">
         <v>1</v>
       </c>
-      <c r="I2" s="77"/>
+      <c r="I2" s="80"/>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
       <c r="L2" s="24"/>
       <c r="M2" s="24"/>
       <c r="N2" s="24"/>
-      <c r="O2" s="72" t="s">
+      <c r="O2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="74" t="s">
+      <c r="P2" s="76"/>
+      <c r="Q2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="75"/>
-      <c r="S2" s="76"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="79"/>
       <c r="T2" s="2"/>
       <c r="U2" s="4"/>
       <c r="V2" s="5" t="s">
@@ -6413,11 +6435,11 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="27.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="68" t="s">
+    <row r="3" spans="1:26" ht="27.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="69"/>
+      <c r="B3" s="72"/>
       <c r="C3" s="25" t="s">
         <v>5</v>
       </c>
@@ -6434,10 +6456,10 @@
       <c r="N3" s="26"/>
       <c r="O3" s="26"/>
       <c r="P3" s="26"/>
-      <c r="Q3" s="70" t="s">
+      <c r="Q3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="71"/>
+      <c r="R3" s="74"/>
       <c r="S3" s="52">
         <f>SUMPRODUCT(B6:B23,S6:S23)</f>
         <v>0.03</v>
@@ -6454,7 +6476,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
@@ -6465,36 +6487,36 @@
         <v>11</v>
       </c>
       <c r="D4" s="43"/>
-      <c r="E4" s="64">
+      <c r="E4" s="67">
         <v>44501</v>
       </c>
-      <c r="F4" s="65"/>
-      <c r="G4" s="64">
+      <c r="F4" s="68"/>
+      <c r="G4" s="67">
         <v>44502</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="64">
+      <c r="H4" s="68"/>
+      <c r="I4" s="67">
         <v>44503</v>
       </c>
-      <c r="J4" s="65"/>
-      <c r="K4" s="64">
+      <c r="J4" s="68"/>
+      <c r="K4" s="67">
         <v>44504</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="64">
+      <c r="L4" s="68"/>
+      <c r="M4" s="67">
         <v>44505</v>
       </c>
-      <c r="N4" s="65"/>
-      <c r="O4" s="64">
+      <c r="N4" s="68"/>
+      <c r="O4" s="67">
         <v>44506</v>
       </c>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="64">
+      <c r="P4" s="68"/>
+      <c r="Q4" s="67">
         <v>44507</v>
       </c>
-      <c r="R4" s="65"/>
+      <c r="R4" s="68"/>
       <c r="S4" s="53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T4" s="10"/>
       <c r="U4" s="11" t="s">
@@ -6508,7 +6530,7 @@
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
     </row>
-    <row r="5" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>26</v>
       </c>
@@ -6565,7 +6587,7 @@
         <v>18</v>
       </c>
       <c r="S5" s="54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T5" s="12"/>
       <c r="U5" s="10"/>
@@ -6575,7 +6597,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="31.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:26" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
         <v>1</v>
       </c>
@@ -6641,7 +6663,7 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30">
         <v>2</v>
       </c>
@@ -6701,7 +6723,7 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
         <v>3</v>
       </c>
@@ -6765,7 +6787,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="35.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:26" ht="35.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>4</v>
       </c>
@@ -6825,7 +6847,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:26" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
         <v>5</v>
       </c>
@@ -6885,7 +6907,7 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>6</v>
       </c>
@@ -6945,7 +6967,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="29.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:26" ht="29.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>7</v>
       </c>
@@ -7005,7 +7027,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="35.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:26" ht="35.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
         <v>8</v>
       </c>
@@ -7065,7 +7087,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="35.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:26" ht="35.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>9</v>
       </c>
@@ -7125,7 +7147,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="35.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:26" ht="35.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
         <v>10</v>
       </c>
@@ -7185,7 +7207,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="43.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:26" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
         <v>11</v>
       </c>
@@ -7193,7 +7215,7 @@
         <v>0.05</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D16" s="36">
         <v>11</v>
@@ -7245,7 +7267,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30">
         <v>12</v>
       </c>
@@ -7305,7 +7327,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="31.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:26" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
         <v>13</v>
       </c>
@@ -7365,7 +7387,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30">
         <v>14</v>
       </c>
@@ -7425,7 +7447,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" ht="28.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:26" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>15</v>
       </c>
@@ -7485,7 +7507,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="30">
         <v>16</v>
       </c>
@@ -7545,7 +7567,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>17</v>
       </c>
@@ -7605,7 +7627,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="26.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:26" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="30">
         <v>18</v>
       </c>
@@ -7667,7 +7689,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="35.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:26" ht="35.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
         <v>39</v>
       </c>
@@ -7732,7 +7754,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:26" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="62">
         <v>1</v>
       </c>
@@ -7794,7 +7816,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="31.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:26" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="30">
         <v>2</v>
       </c>
@@ -7854,7 +7876,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:26" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="63">
         <v>3</v>
       </c>
@@ -7914,40 +7936,33 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="78" t="s">
+    <row r="28" spans="1:26" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78" t="s">
-        <v>54</v>
-      </c>
       <c r="D28" s="61"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="79"/>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="79"/>
-      <c r="R28" s="80"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="65"/>
+      <c r="R28" s="66"/>
       <c r="S28" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="A2:B2"/>
@@ -7961,6 +7976,13 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.11811023622047245" right="0.21249999999999999" top="0.47499999999999998" bottom="0.51875000000000004" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/frontend/public/excel_folder/S01.xlsx
+++ b/frontend/public/excel_folder/S01.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="58">
   <si>
     <t>工程名稱</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -226,7 +226,8 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>NaN</t>
+    <t>圓池外填土整地、循環池配置管路組裝及池內整地夯實</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>圓池外填土整地、循環池配置管路組裝及池內整地夯實</t>
@@ -237,8 +238,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>圓池外填土整地、循環池配置管路組裝及池內整地夯實</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>NaN</t>
   </si>
 </sst>
 </file>
@@ -1676,27 +1676,33 @@
       <c r="D6" s="36">
         <v>46</v>
       </c>
-      <c r="E6" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="40" t="e">
+      <c r="E6" s="28">
+        <v>46</v>
+      </c>
+      <c r="F6" s="40">
         <f>IF(E6/$D$6="- ",0,E6/$D$6)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G6" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="20">
+        <v>46</v>
+      </c>
       <c r="H6" s="40">
         <f>IF(G6/$D$6="- ",0,G6/$D$6)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="40">
+        <v>1</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="40" t="e">
         <f>IF(I6/$D$6="- ",0,I6/$D$6)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="20"/>
-      <c r="L6" s="40">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="40" t="e">
         <f>IF(K6/$D$6="- ",0,K6/$D$6)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M6" s="20"/>
       <c r="N6" s="40">
@@ -1742,27 +1748,33 @@
       <c r="D7" s="36">
         <v>16</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="40" t="e">
+      <c r="E7" s="20">
+        <v>16</v>
+      </c>
+      <c r="F7" s="40">
         <f>IF(E7/$D$7="- ",0,E7/$D$7)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G7" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="20">
+        <v>16</v>
+      </c>
       <c r="H7" s="40">
         <f>IF(G7/$D$7="- ",0,G7/$D$7)</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="40">
+        <v>1</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="40" t="e">
         <f>IF(I7/$D$7="- ",0,I7/$D$7)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="40">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="40" t="e">
         <f>IF(K7/$D$7="- ",0,K7/$D$7)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M7" s="20"/>
       <c r="N7" s="40">
@@ -1804,27 +1816,33 @@
       <c r="D8" s="36">
         <v>5</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="40" t="e">
+      <c r="E8" s="20">
+        <v>5</v>
+      </c>
+      <c r="F8" s="40">
         <f>IF(E8/$D$8="- ",0,E8/$D$8)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G8" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="20">
+        <v>5</v>
+      </c>
       <c r="H8" s="40">
         <f>IF(G8/$D$8="- ",0,G8/$D$8)</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="40">
+        <v>1</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="40" t="e">
         <f>IF(I8/$D$8="- ",0,I8/$D$8)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="40">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="40" t="e">
         <f>IF(K8/$D$8="- ",0,K8/$D$8)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M8" s="20"/>
       <c r="N8" s="40">
@@ -1870,27 +1888,33 @@
       <c r="D9" s="36">
         <v>5</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="40" t="e">
+      <c r="E9" s="20">
+        <v>5</v>
+      </c>
+      <c r="F9" s="40">
         <f>IF(E9/$D$9="- ",0,E9/$D$9)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G9" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="20">
+        <v>5</v>
+      </c>
       <c r="H9" s="40">
         <f>IF(G9/$D$9="- ",0,G9/$D$9)</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="40">
+        <v>1</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="40" t="e">
         <f>IF(I9/$D$9="- ",0,I9/$D$9)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="40">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="40" t="e">
         <f>IF(K9/$D$9="- ",0,K9/$D$9)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M9" s="20"/>
       <c r="N9" s="40">
@@ -1932,27 +1956,33 @@
       <c r="D10" s="36">
         <v>27</v>
       </c>
-      <c r="E10" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="40" t="e">
+      <c r="E10" s="20">
+        <v>27</v>
+      </c>
+      <c r="F10" s="40">
         <f>IF(E10/$D$10="- ",0,E10/$D$10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G10" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="20">
+        <v>27</v>
+      </c>
       <c r="H10" s="40">
         <f>IF(G10/$D$10="- ",0,G10/$D$10)</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="40">
+        <v>1</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="40" t="e">
         <f>IF(I10/$D$10="- ",0,I10/$D$10)</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="20"/>
-      <c r="L10" s="40">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="40" t="e">
         <f>IF(K10/$D$10="- ",0,K10/$D$10)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M10" s="20"/>
       <c r="N10" s="40">
@@ -1994,27 +2024,33 @@
       <c r="D11" s="36">
         <v>11</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="40" t="e">
+      <c r="E11" s="20">
+        <v>11</v>
+      </c>
+      <c r="F11" s="40">
         <f>IF(E11/$D$11="- ",0,E11/$D$11)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G11" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="20">
+        <v>11</v>
+      </c>
       <c r="H11" s="40">
         <f>IF(G11/$D$11="- ",0,G11/$D$11)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="40">
+        <v>1</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="40" t="e">
         <f>IF(I11/$D$11="- ",0,I11/$D$11)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="40">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" s="40" t="e">
         <f>IF(K11/$D$11="- ",0,K11/$D$11)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M11" s="20"/>
       <c r="N11" s="40">
@@ -2056,27 +2092,33 @@
       <c r="D12" s="36">
         <v>22</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="40" t="e">
+      <c r="E12" s="20">
+        <v>22</v>
+      </c>
+      <c r="F12" s="40">
         <f>IF(E12/$D$12="- ",0,E12/$D$12)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G12" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="20">
+        <v>22</v>
+      </c>
       <c r="H12" s="40">
         <f>IF(G12/$D$12="- ",0,G12/$D$12)</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="40">
+        <v>1</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="40" t="e">
         <f>IF(I12/$D$12="- ",0,I12/$D$12)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="40">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="40" t="e">
         <f>IF(K12/$D$12="- ",0,K12/$D$12)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M12" s="20"/>
       <c r="N12" s="40">
@@ -2118,27 +2160,33 @@
       <c r="D13" s="36">
         <v>11</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="40" t="e">
+      <c r="E13" s="20">
+        <v>11</v>
+      </c>
+      <c r="F13" s="40">
         <f>IF(E13/$D$13="- ",0,E13/$D$13)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G13" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="20">
+        <v>11</v>
+      </c>
       <c r="H13" s="40">
         <f>IF(G13/$D$13="- ",0,G13/$D$13)</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="40">
+        <v>1</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="40" t="e">
         <f>IF(I13/$D$13="- ",0,I13/$D$13)</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="20"/>
-      <c r="L13" s="40">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" s="40" t="e">
         <f>IF(K13/$D$13="- ",0,K13/$D$13)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M13" s="20"/>
       <c r="N13" s="40">
@@ -2180,27 +2228,33 @@
       <c r="D14" s="36">
         <v>11</v>
       </c>
-      <c r="E14" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="40" t="e">
+      <c r="E14" s="20">
+        <v>11</v>
+      </c>
+      <c r="F14" s="40">
         <f>IF(E14/$D$14="- ",0,E14/$D$14)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G14" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="20">
+        <v>11</v>
+      </c>
       <c r="H14" s="40">
         <f>IF(G14/$D$14="- ",0,G14/$D$14)</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="40">
+        <v>1</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="40" t="e">
         <f>IF(I14/$D$14="- ",0,I14/$D$14)</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="20"/>
-      <c r="L14" s="40">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" s="40" t="e">
         <f>IF(K14/$D$14="- ",0,K14/$D$14)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M14" s="20"/>
       <c r="N14" s="40">
@@ -2242,27 +2296,33 @@
       <c r="D15" s="36">
         <v>65</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="40" t="e">
+      <c r="E15" s="20">
+        <v>65</v>
+      </c>
+      <c r="F15" s="40">
         <f>IF(E15/$D$15="- ",0,E15/$D$15)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G15" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="20">
+        <v>65</v>
+      </c>
       <c r="H15" s="40">
         <f>IF(G15/$D$15="- ",0,G15/$D$15)</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="40">
+        <v>1</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="40" t="e">
         <f>IF(I15/$D$15="- ",0,I15/$D$15)</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="20"/>
-      <c r="L15" s="40">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="40" t="e">
         <f>IF(K15/$D$15="- ",0,K15/$D$15)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M15" s="20"/>
       <c r="N15" s="40">
@@ -2299,30 +2359,38 @@
         <v>0.05</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" s="36">
         <v>11</v>
       </c>
-      <c r="E16" s="20"/>
+      <c r="E16" s="20">
+        <v>11</v>
+      </c>
       <c r="F16" s="40">
         <f>IF(E16/$D$16="- ",0,E16/$D$16)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="20">
+        <v>11</v>
+      </c>
       <c r="H16" s="40">
         <f>IF(G16/$D$16="- ",0,G16/$D$16)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="40">
+        <v>1</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="40" t="e">
         <f>IF(I16/$D$16="- ",0,I16/$D$16)</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="20"/>
-      <c r="L16" s="40">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" s="40" t="e">
         <f>IF(K16/$D$16="- ",0,K16/$D$16)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M16" s="20"/>
       <c r="N16" s="40">
@@ -2339,9 +2407,9 @@
         <f>IF(Q16/$D$16="- ",0,Q16/$D$16)</f>
         <v>0</v>
       </c>
-      <c r="S16" s="55">
+      <c r="S16" s="55" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
@@ -2364,25 +2432,33 @@
       <c r="D17" s="36">
         <v>11</v>
       </c>
-      <c r="E17" s="20"/>
+      <c r="E17" s="20">
+        <v>11</v>
+      </c>
       <c r="F17" s="40">
         <f>IF(E17/$D$17="- ",0,E17/$D$17)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="20">
+        <v>11</v>
+      </c>
       <c r="H17" s="40">
         <f>IF(G17/$D$17="- ",0,G17/$D$17)</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="40">
+        <v>1</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="40" t="e">
         <f>IF(I17/$D$17="- ",0,I17/$D$17)</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="20"/>
-      <c r="L17" s="40">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="L17" s="40" t="e">
         <f>IF(K17/$D$17="- ",0,K17/$D$17)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M17" s="20"/>
       <c r="N17" s="40">
@@ -2399,9 +2475,9 @@
         <f>IF(Q17/$D$17="- ",0,Q17/$D$17)</f>
         <v>0</v>
       </c>
-      <c r="S17" s="55">
+      <c r="S17" s="55" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
@@ -2424,25 +2500,33 @@
       <c r="D18" s="36">
         <v>1</v>
       </c>
-      <c r="E18" s="20"/>
+      <c r="E18" s="20">
+        <v>1</v>
+      </c>
       <c r="F18" s="40">
         <f>IF(E18/$D$18="- ",0,E18/$D$18)</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="20">
+        <v>1</v>
+      </c>
       <c r="H18" s="40">
         <f>IF(G18/$D$18="- ",0,G18/$D$18)</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="40">
+        <v>1</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="40" t="e">
         <f>IF(I18/$D$18="- ",0,I18/$D$18)</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="20"/>
-      <c r="L18" s="40">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="L18" s="40" t="e">
         <f>IF(K18/$D$18="- ",0,K18/$D$18)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M18" s="20"/>
       <c r="N18" s="40">
@@ -2459,9 +2543,9 @@
         <f>IF(Q18/$D$18="- ",0,Q18/$D$18)</f>
         <v>0</v>
       </c>
-      <c r="S18" s="55">
+      <c r="S18" s="55" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
@@ -2484,25 +2568,33 @@
       <c r="D19" s="36">
         <v>1</v>
       </c>
-      <c r="E19" s="20"/>
+      <c r="E19" s="20">
+        <v>1</v>
+      </c>
       <c r="F19" s="40">
         <f>IF(E19/$D$19="- ",0,E19/$D$19)</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="20">
+        <v>1</v>
+      </c>
       <c r="H19" s="40">
         <f>IF(G19/$D$19="- ",0,G19/$D$19)</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="40">
+        <v>1</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="40" t="e">
         <f>IF(I19/$D$19="- ",0,I19/$D$19)</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="20"/>
-      <c r="L19" s="40">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="40" t="e">
         <f>IF(K19/$D$19="- ",0,K19/$D$19)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M19" s="20"/>
       <c r="N19" s="40">
@@ -2519,9 +2611,9 @@
         <f>IF(Q19/$D$19="- ",0,Q19/$D$19)</f>
         <v>0</v>
       </c>
-      <c r="S19" s="55">
+      <c r="S19" s="55" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
@@ -2544,25 +2636,33 @@
       <c r="D20" s="36">
         <v>1</v>
       </c>
-      <c r="E20" s="20"/>
+      <c r="E20" s="20">
+        <v>1</v>
+      </c>
       <c r="F20" s="40">
         <f>IF(E20/$D$20="- ",0,E20/$D$20)</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="G20" s="20">
+        <v>1</v>
+      </c>
       <c r="H20" s="40">
         <f>IF(G20/$D$20="- ",0,G20/$D$20)</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="40">
+        <v>1</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="40" t="e">
         <f>IF(I20/$D$20="- ",0,I20/$D$20)</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="20"/>
-      <c r="L20" s="40">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="L20" s="40" t="e">
         <f>IF(K20/$D$20="- ",0,K20/$D$20)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M20" s="20"/>
       <c r="N20" s="40">
@@ -2579,9 +2679,9 @@
         <f>IF(Q20/$D$20="- ",0,Q20/$D$20)</f>
         <v>0</v>
       </c>
-      <c r="S20" s="55">
+      <c r="S20" s="55" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -2604,25 +2704,33 @@
       <c r="D21" s="36">
         <v>8</v>
       </c>
-      <c r="E21" s="20"/>
+      <c r="E21" s="20">
+        <v>6</v>
+      </c>
       <c r="F21" s="40">
         <f>IF(E21/$D$21="- ",0,E21/$D$21)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="20"/>
+        <v>0.75</v>
+      </c>
+      <c r="G21" s="20">
+        <v>8</v>
+      </c>
       <c r="H21" s="40">
         <f>IF(G21/$D$21="- ",0,G21/$D$21)</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="40">
+        <v>1</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="40" t="e">
         <f>IF(I21/$D$21="- ",0,I21/$D$21)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="20"/>
-      <c r="L21" s="40">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="L21" s="40" t="e">
         <f>IF(K21/$D$21="- ",0,K21/$D$21)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M21" s="20"/>
       <c r="N21" s="40">
@@ -2639,9 +2747,9 @@
         <f>IF(Q21/$D$21="- ",0,Q21/$D$21)</f>
         <v>0</v>
       </c>
-      <c r="S21" s="55">
+      <c r="S21" s="55" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -2664,25 +2772,33 @@
       <c r="D22" s="36">
         <v>22</v>
       </c>
-      <c r="E22" s="20"/>
+      <c r="E22" s="20">
+        <v>22</v>
+      </c>
       <c r="F22" s="40">
         <f>IF(E22/$D$22="- ",0,E22/$D$22)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="G22" s="20">
+        <v>22</v>
+      </c>
       <c r="H22" s="40">
         <f>IF(G22/$D$22="- ",0,G22/$D$22)</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="40">
+        <v>1</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" s="40" t="e">
         <f>IF(I22/$D$22="- ",0,I22/$D$22)</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="20"/>
-      <c r="L22" s="40">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="L22" s="40" t="e">
         <f>IF(K22/$D$22="- ",0,K22/$D$22)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M22" s="20"/>
       <c r="N22" s="40">
@@ -2699,9 +2815,9 @@
         <f>IF(Q22/$D$22="- ",0,Q22/$D$22)</f>
         <v>0</v>
       </c>
-      <c r="S22" s="55">
+      <c r="S22" s="55" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -2725,26 +2841,32 @@
         <v>11</v>
       </c>
       <c r="E23" s="28">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F23" s="40">
         <f>IF(E23/$D$23="- ",0,E23/$D$23)</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="G23" s="20">
+        <v>11</v>
+      </c>
       <c r="H23" s="40">
         <f>IF(G23/$D$23="- ",0,G23/$D$23)</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="40">
+        <v>1</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" s="40" t="e">
         <f>IF(I23/$D$23="- ",0,I23/$D$23)</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="20"/>
-      <c r="L23" s="40">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="L23" s="40" t="e">
         <f>IF(K23/$D$23="- ",0,K23/$D$23)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M23" s="20"/>
       <c r="N23" s="40">
@@ -2761,9 +2883,9 @@
         <f>IF(Q23/$D$23="- ",0,Q23/$D$23)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="55">
+      <c r="S23" s="55" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
@@ -2826,9 +2948,9 @@
       <c r="R24" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="S24" s="52">
+      <c r="S24" s="52" t="e">
         <f>SUMPRODUCT(B25:B27,S25:S27)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
@@ -2852,26 +2974,32 @@
         <v>479</v>
       </c>
       <c r="E25" s="51">
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="F25" s="40">
         <f>IF(E25/$D$25="- ",0,E25/$D$25)</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="G25" s="21">
+        <v>479</v>
+      </c>
       <c r="H25" s="40">
         <f>IF(G25/$D$25="- ",0,G25/$D$25)</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="40">
+        <v>1</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J25" s="40" t="e">
         <f>IF(I25/$D$25="- ",0,I25/$D$25)</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="21"/>
-      <c r="L25" s="40">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="L25" s="40" t="e">
         <f>IF(K25/$D$25="- ",0,K25/$D$25)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M25" s="21"/>
       <c r="N25" s="40">
@@ -2888,9 +3016,9 @@
         <f>IF(Q25/$D$25="- ",0,Q25/$D$25)</f>
         <v>0</v>
       </c>
-      <c r="S25" s="55">
+      <c r="S25" s="55" t="e">
         <f>MAX(F25,H25,J25,L25,N25,P25,R25)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
@@ -2913,25 +3041,33 @@
       <c r="D26" s="60">
         <v>479</v>
       </c>
-      <c r="E26" s="21"/>
+      <c r="E26" s="21">
+        <v>479</v>
+      </c>
       <c r="F26" s="40">
         <f>IF(E26/$D$26="- ",0,E26/$D$26)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="G26" s="21">
+        <v>479</v>
+      </c>
       <c r="H26" s="40">
         <f>IF(G26/$D$26="- ",0,G26/$D$26)</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="40">
+        <v>1</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J26" s="40" t="e">
         <f>IF(I26/$D$26="- ",0,I26/$D$26)</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="21"/>
-      <c r="L26" s="40">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K26" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="L26" s="40" t="e">
         <f>IF(K26/$D$26="- ",0,K26/$D$26)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M26" s="21"/>
       <c r="N26" s="40">
@@ -2948,9 +3084,9 @@
         <f>IF(Q26/$D$26="- ",0,Q26/$D$26)</f>
         <v>0</v>
       </c>
-      <c r="S26" s="55">
+      <c r="S26" s="55" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
@@ -2973,25 +3109,33 @@
       <c r="D27" s="61">
         <v>479</v>
       </c>
-      <c r="E27" s="22"/>
+      <c r="E27" s="22">
+        <v>479</v>
+      </c>
       <c r="F27" s="58">
         <f>IF(E27/$D$27="- ",0,E27/$D$27)</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="G27" s="22">
+        <v>479</v>
+      </c>
       <c r="H27" s="58">
         <f>IF(G27/$D$27="- ",0,G27/$D$27)</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="58">
+        <v>1</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" s="58" t="e">
         <f>IF(I27/$D$27="- ",0,I27/$D$27)</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="22"/>
-      <c r="L27" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K27" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" s="58" t="e">
         <f>IF(K27/$D$27="- ",0,K27/$D$27)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M27" s="22"/>
       <c r="N27" s="58">
@@ -3008,9 +3152,9 @@
         <f>IF(Q27/$D$27="- ",0,Q27/$D$27)</f>
         <v>0</v>
       </c>
-      <c r="S27" s="59">
+      <c r="S27" s="59" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
@@ -3938,7 +4082,7 @@
         <v>0.05</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="36">
         <v>11</v>
@@ -5576,7 +5720,7 @@
         <v>0.05</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="36">
         <v>11</v>
@@ -7215,7 +7359,7 @@
         <v>0.05</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="36">
         <v>11</v>

--- a/frontend/public/excel_folder/S01.xlsx
+++ b/frontend/public/excel_folder/S01.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="62">
   <si>
     <t>工程名稱</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -239,6 +239,22 @@
   </si>
   <si>
     <t>NaN</t>
+  </si>
+  <si>
+    <t>NaN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NaN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NaN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NaN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1676,12 +1692,12 @@
       <c r="D6" s="36">
         <v>46</v>
       </c>
-      <c r="E6" s="28">
-        <v>46</v>
-      </c>
-      <c r="F6" s="40">
+      <c r="E6" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="40" t="e">
         <f>IF(E6/$D$6="- ",0,E6/$D$6)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G6" s="20">
         <v>46</v>
@@ -1714,10 +1730,12 @@
         <f>IF(O6/$D$6="- ",0,O6/$D$6)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="40">
+      <c r="Q6" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="R6" s="40" t="e">
         <f>IF(Q6/$D$6="- ",0,Q6/$D$6)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S6" s="55" t="e">
         <f>MAX(F6,H6,J6,L6,N6,P6,R6)</f>
@@ -1748,12 +1766,12 @@
       <c r="D7" s="36">
         <v>16</v>
       </c>
-      <c r="E7" s="20">
-        <v>16</v>
-      </c>
-      <c r="F7" s="40">
+      <c r="E7" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="40" t="e">
         <f>IF(E7/$D$7="- ",0,E7/$D$7)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G7" s="20">
         <v>16</v>
@@ -1786,10 +1804,12 @@
         <f>IF(O7/$D$7="- ",0,O7/$D$7)</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="40">
+      <c r="Q7" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="R7" s="40" t="e">
         <f>IF(Q7/$D$7="- ",0,Q7/$D$7)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S7" s="55" t="e">
         <f t="shared" ref="S7:S27" si="0">MAX(F7,H7,J7,L7,N7,P7,R7)</f>
@@ -1816,12 +1836,12 @@
       <c r="D8" s="36">
         <v>5</v>
       </c>
-      <c r="E8" s="20">
-        <v>5</v>
-      </c>
-      <c r="F8" s="40">
+      <c r="E8" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="40" t="e">
         <f>IF(E8/$D$8="- ",0,E8/$D$8)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G8" s="20">
         <v>5</v>
@@ -1854,10 +1874,12 @@
         <f>IF(O8/$D$8="- ",0,O8/$D$8)</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="40">
+      <c r="Q8" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="R8" s="40" t="e">
         <f>IF(Q8/$D$8="- ",0,Q8/$D$8)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S8" s="55" t="e">
         <f t="shared" si="0"/>
@@ -1888,12 +1910,12 @@
       <c r="D9" s="36">
         <v>5</v>
       </c>
-      <c r="E9" s="20">
-        <v>5</v>
-      </c>
-      <c r="F9" s="40">
+      <c r="E9" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="40" t="e">
         <f>IF(E9/$D$9="- ",0,E9/$D$9)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G9" s="20">
         <v>5</v>
@@ -1926,10 +1948,12 @@
         <f>IF(O9/$D$9="- ",0,O9/$D$9)</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="40">
+      <c r="Q9" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="R9" s="40" t="e">
         <f>IF(Q9/$D$9="- ",0,Q9/$D$9)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S9" s="55" t="e">
         <f t="shared" si="0"/>
@@ -1956,12 +1980,12 @@
       <c r="D10" s="36">
         <v>27</v>
       </c>
-      <c r="E10" s="20">
-        <v>27</v>
-      </c>
-      <c r="F10" s="40">
+      <c r="E10" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="40" t="e">
         <f>IF(E10/$D$10="- ",0,E10/$D$10)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G10" s="20">
         <v>27</v>
@@ -1994,10 +2018,12 @@
         <f>IF(O10/$D$10="- ",0,O10/$D$10)</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="40">
+      <c r="Q10" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="R10" s="40" t="e">
         <f>IF(Q10/$D$10="- ",0,Q10/$D$10)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S10" s="55" t="e">
         <f t="shared" si="0"/>
@@ -2024,12 +2050,12 @@
       <c r="D11" s="36">
         <v>11</v>
       </c>
-      <c r="E11" s="20">
-        <v>11</v>
-      </c>
-      <c r="F11" s="40">
+      <c r="E11" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="40" t="e">
         <f>IF(E11/$D$11="- ",0,E11/$D$11)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G11" s="20">
         <v>11</v>
@@ -2062,10 +2088,12 @@
         <f>IF(O11/$D$11="- ",0,O11/$D$11)</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="40">
+      <c r="Q11" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="R11" s="40" t="e">
         <f>IF(Q11/$D$11="- ",0,Q11/$D$11)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S11" s="55" t="e">
         <f t="shared" si="0"/>
@@ -2092,12 +2120,12 @@
       <c r="D12" s="36">
         <v>22</v>
       </c>
-      <c r="E12" s="20">
-        <v>22</v>
-      </c>
-      <c r="F12" s="40">
+      <c r="E12" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="40" t="e">
         <f>IF(E12/$D$12="- ",0,E12/$D$12)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G12" s="20">
         <v>22</v>
@@ -2130,10 +2158,12 @@
         <f>IF(O12/$D$12="- ",0,O12/$D$12)</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="40">
+      <c r="Q12" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="R12" s="40" t="e">
         <f>IF(Q12/$D$12="- ",0,Q12/$D$12)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S12" s="55" t="e">
         <f t="shared" si="0"/>
@@ -2160,12 +2190,12 @@
       <c r="D13" s="36">
         <v>11</v>
       </c>
-      <c r="E13" s="20">
-        <v>11</v>
-      </c>
-      <c r="F13" s="40">
+      <c r="E13" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="40" t="e">
         <f>IF(E13/$D$13="- ",0,E13/$D$13)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G13" s="20">
         <v>11</v>
@@ -2198,10 +2228,12 @@
         <f>IF(O13/$D$13="- ",0,O13/$D$13)</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="40">
+      <c r="Q13" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="R13" s="40" t="e">
         <f>IF(Q13/$D$13="- ",0,Q13/$D$13)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S13" s="55" t="e">
         <f t="shared" si="0"/>
@@ -2228,12 +2260,12 @@
       <c r="D14" s="36">
         <v>11</v>
       </c>
-      <c r="E14" s="20">
-        <v>11</v>
-      </c>
-      <c r="F14" s="40">
+      <c r="E14" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="40" t="e">
         <f>IF(E14/$D$14="- ",0,E14/$D$14)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G14" s="20">
         <v>11</v>
@@ -2266,10 +2298,12 @@
         <f>IF(O14/$D$14="- ",0,O14/$D$14)</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="40">
+      <c r="Q14" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="R14" s="40" t="e">
         <f>IF(Q14/$D$14="- ",0,Q14/$D$14)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S14" s="55" t="e">
         <f t="shared" si="0"/>
@@ -2296,12 +2330,12 @@
       <c r="D15" s="36">
         <v>65</v>
       </c>
-      <c r="E15" s="20">
-        <v>65</v>
-      </c>
-      <c r="F15" s="40">
+      <c r="E15" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="40" t="e">
         <f>IF(E15/$D$15="- ",0,E15/$D$15)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G15" s="20">
         <v>65</v>
@@ -2334,10 +2368,12 @@
         <f>IF(O15/$D$15="- ",0,O15/$D$15)</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="40">
+      <c r="Q15" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="R15" s="40" t="e">
         <f>IF(Q15/$D$15="- ",0,Q15/$D$15)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S15" s="55" t="e">
         <f t="shared" si="0"/>
@@ -2364,12 +2400,12 @@
       <c r="D16" s="36">
         <v>11</v>
       </c>
-      <c r="E16" s="20">
-        <v>11</v>
-      </c>
-      <c r="F16" s="40">
+      <c r="E16" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="40" t="e">
         <f>IF(E16/$D$16="- ",0,E16/$D$16)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G16" s="20">
         <v>11</v>
@@ -2402,10 +2438,12 @@
         <f>IF(O16/$D$16="- ",0,O16/$D$16)</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="40">
+      <c r="Q16" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="R16" s="40" t="e">
         <f>IF(Q16/$D$16="- ",0,Q16/$D$16)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S16" s="55" t="e">
         <f t="shared" si="0"/>
@@ -2432,12 +2470,12 @@
       <c r="D17" s="36">
         <v>11</v>
       </c>
-      <c r="E17" s="20">
-        <v>11</v>
-      </c>
-      <c r="F17" s="40">
+      <c r="E17" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="40" t="e">
         <f>IF(E17/$D$17="- ",0,E17/$D$17)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G17" s="20">
         <v>11</v>
@@ -2470,10 +2508,12 @@
         <f>IF(O17/$D$17="- ",0,O17/$D$17)</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="40">
+      <c r="Q17" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="R17" s="40" t="e">
         <f>IF(Q17/$D$17="- ",0,Q17/$D$17)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S17" s="55" t="e">
         <f t="shared" si="0"/>
@@ -2500,12 +2540,12 @@
       <c r="D18" s="36">
         <v>1</v>
       </c>
-      <c r="E18" s="20">
-        <v>1</v>
-      </c>
-      <c r="F18" s="40">
+      <c r="E18" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="40" t="e">
         <f>IF(E18/$D$18="- ",0,E18/$D$18)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G18" s="20">
         <v>1</v>
@@ -2538,10 +2578,12 @@
         <f>IF(O18/$D$18="- ",0,O18/$D$18)</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="40">
+      <c r="Q18" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="R18" s="40" t="e">
         <f>IF(Q18/$D$18="- ",0,Q18/$D$18)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S18" s="55" t="e">
         <f t="shared" si="0"/>
@@ -2568,12 +2610,12 @@
       <c r="D19" s="36">
         <v>1</v>
       </c>
-      <c r="E19" s="20">
-        <v>1</v>
-      </c>
-      <c r="F19" s="40">
+      <c r="E19" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="40" t="e">
         <f>IF(E19/$D$19="- ",0,E19/$D$19)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G19" s="20">
         <v>1</v>
@@ -2606,10 +2648,12 @@
         <f>IF(O19/$D$19="- ",0,O19/$D$19)</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="40">
+      <c r="Q19" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="R19" s="40" t="e">
         <f>IF(Q19/$D$19="- ",0,Q19/$D$19)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S19" s="55" t="e">
         <f t="shared" si="0"/>
@@ -2636,12 +2680,12 @@
       <c r="D20" s="36">
         <v>1</v>
       </c>
-      <c r="E20" s="20">
-        <v>1</v>
-      </c>
-      <c r="F20" s="40">
+      <c r="E20" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="40" t="e">
         <f>IF(E20/$D$20="- ",0,E20/$D$20)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G20" s="20">
         <v>1</v>
@@ -2674,10 +2718,12 @@
         <f>IF(O20/$D$20="- ",0,O20/$D$20)</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="40">
+      <c r="Q20" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="R20" s="40" t="e">
         <f>IF(Q20/$D$20="- ",0,Q20/$D$20)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S20" s="55" t="e">
         <f t="shared" si="0"/>
@@ -2704,12 +2750,12 @@
       <c r="D21" s="36">
         <v>8</v>
       </c>
-      <c r="E21" s="20">
-        <v>6</v>
-      </c>
-      <c r="F21" s="40">
+      <c r="E21" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="40" t="e">
         <f>IF(E21/$D$21="- ",0,E21/$D$21)</f>
-        <v>0.75</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G21" s="20">
         <v>8</v>
@@ -2742,10 +2788,12 @@
         <f>IF(O21/$D$21="- ",0,O21/$D$21)</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="40">
+      <c r="Q21" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="R21" s="40" t="e">
         <f>IF(Q21/$D$21="- ",0,Q21/$D$21)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S21" s="55" t="e">
         <f t="shared" si="0"/>
@@ -2772,12 +2820,12 @@
       <c r="D22" s="36">
         <v>22</v>
       </c>
-      <c r="E22" s="20">
-        <v>22</v>
-      </c>
-      <c r="F22" s="40">
+      <c r="E22" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="40" t="e">
         <f>IF(E22/$D$22="- ",0,E22/$D$22)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G22" s="20">
         <v>22</v>
@@ -2810,10 +2858,12 @@
         <f>IF(O22/$D$22="- ",0,O22/$D$22)</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="40">
+      <c r="Q22" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="R22" s="40" t="e">
         <f>IF(Q22/$D$22="- ",0,Q22/$D$22)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S22" s="55" t="e">
         <f t="shared" si="0"/>
@@ -2840,12 +2890,12 @@
       <c r="D23" s="36">
         <v>11</v>
       </c>
-      <c r="E23" s="28">
-        <v>11</v>
-      </c>
-      <c r="F23" s="40">
+      <c r="E23" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="40" t="e">
         <f>IF(E23/$D$23="- ",0,E23/$D$23)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G23" s="20">
         <v>11</v>
@@ -2878,10 +2928,12 @@
         <f>IF(O23/$D$23="- ",0,O23/$D$23)</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="40">
+      <c r="Q23" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="R23" s="40" t="e">
         <f>IF(Q23/$D$23="- ",0,Q23/$D$23)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S23" s="55" t="e">
         <f t="shared" si="0"/>
@@ -2973,12 +3025,12 @@
       <c r="D25" s="60">
         <v>479</v>
       </c>
-      <c r="E25" s="51">
-        <v>479</v>
-      </c>
-      <c r="F25" s="40">
+      <c r="E25" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="40" t="e">
         <f>IF(E25/$D$25="- ",0,E25/$D$25)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G25" s="21">
         <v>479</v>
@@ -3011,10 +3063,12 @@
         <f>IF(O25/$D$25="- ",0,O25/$D$25)</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="40">
+      <c r="Q25" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="R25" s="40" t="e">
         <f>IF(Q25/$D$25="- ",0,Q25/$D$25)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S25" s="55" t="e">
         <f>MAX(F25,H25,J25,L25,N25,P25,R25)</f>
@@ -3041,12 +3095,12 @@
       <c r="D26" s="60">
         <v>479</v>
       </c>
-      <c r="E26" s="21">
-        <v>479</v>
-      </c>
-      <c r="F26" s="40">
+      <c r="E26" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="40" t="e">
         <f>IF(E26/$D$26="- ",0,E26/$D$26)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G26" s="21">
         <v>479</v>
@@ -3079,10 +3133,12 @@
         <f>IF(O26/$D$26="- ",0,O26/$D$26)</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="40">
+      <c r="Q26" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="R26" s="40" t="e">
         <f>IF(Q26/$D$26="- ",0,Q26/$D$26)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S26" s="55" t="e">
         <f t="shared" si="0"/>
@@ -3109,12 +3165,12 @@
       <c r="D27" s="61">
         <v>479</v>
       </c>
-      <c r="E27" s="22">
-        <v>479</v>
-      </c>
-      <c r="F27" s="58">
+      <c r="E27" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="58" t="e">
         <f>IF(E27/$D$27="- ",0,E27/$D$27)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G27" s="22">
         <v>479</v>
@@ -3147,10 +3203,12 @@
         <f>IF(O27/$D$27="- ",0,O27/$D$27)</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="58">
+      <c r="Q27" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="R27" s="58" t="e">
         <f>IF(Q27/$D$27="- ",0,Q27/$D$27)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S27" s="59" t="e">
         <f t="shared" si="0"/>

--- a/frontend/public/excel_folder/S01.xlsx
+++ b/frontend/public/excel_folder/S01.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="60">
   <si>
     <t>工程名稱</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -239,14 +239,6 @@
   </si>
   <si>
     <t>NaN</t>
-  </si>
-  <si>
-    <t>NaN</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NaN</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>NaN</t>
@@ -1061,12 +1053,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1122,6 +1108,12 @@
     <xf numFmtId="179" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1430,7 +1422,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1478,10 +1470,10 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="70"/>
+      <c r="A2" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="68"/>
       <c r="C2" s="23" t="s">
         <v>47</v>
       </c>
@@ -1489,24 +1481,24 @@
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
-      <c r="H2" s="80">
+      <c r="H2" s="78">
         <v>1</v>
       </c>
-      <c r="I2" s="80"/>
+      <c r="I2" s="78"/>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
       <c r="L2" s="24"/>
       <c r="M2" s="24"/>
       <c r="N2" s="24"/>
-      <c r="O2" s="75" t="s">
+      <c r="O2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="77" t="s">
+      <c r="P2" s="74"/>
+      <c r="Q2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="78"/>
-      <c r="S2" s="79"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="77"/>
       <c r="T2" s="2"/>
       <c r="U2" s="4"/>
       <c r="V2" s="5" t="s">
@@ -1518,10 +1510,10 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="27.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="72"/>
+      <c r="B3" s="70"/>
       <c r="C3" s="25" t="s">
         <v>5</v>
       </c>
@@ -1538,10 +1530,10 @@
       <c r="N3" s="26"/>
       <c r="O3" s="26"/>
       <c r="P3" s="26"/>
-      <c r="Q3" s="73" t="s">
+      <c r="Q3" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="74"/>
+      <c r="R3" s="72"/>
       <c r="S3" s="52" t="e">
         <f>SUMPRODUCT(B6:B23,S6:S23)</f>
         <v>#VALUE!</v>
@@ -1569,34 +1561,34 @@
         <v>11</v>
       </c>
       <c r="D4" s="43"/>
-      <c r="E4" s="67">
+      <c r="E4" s="65">
         <v>44501</v>
       </c>
-      <c r="F4" s="68"/>
-      <c r="G4" s="67">
+      <c r="F4" s="66"/>
+      <c r="G4" s="65">
         <v>44502</v>
       </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="67">
+      <c r="H4" s="66"/>
+      <c r="I4" s="65">
         <v>44503</v>
       </c>
-      <c r="J4" s="68"/>
-      <c r="K4" s="67">
+      <c r="J4" s="66"/>
+      <c r="K4" s="65">
         <v>44504</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="67">
+      <c r="L4" s="66"/>
+      <c r="M4" s="65">
         <v>44505</v>
       </c>
-      <c r="N4" s="68"/>
-      <c r="O4" s="67">
+      <c r="N4" s="66"/>
+      <c r="O4" s="65">
         <v>44506</v>
       </c>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="67">
+      <c r="P4" s="66"/>
+      <c r="Q4" s="65">
         <v>44507</v>
       </c>
-      <c r="R4" s="68"/>
+      <c r="R4" s="66"/>
       <c r="S4" s="53" t="s">
         <v>50</v>
       </c>
@@ -1692,12 +1684,12 @@
       <c r="D6" s="36">
         <v>46</v>
       </c>
-      <c r="E6" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="40" t="e">
+      <c r="E6" s="28">
+        <v>46</v>
+      </c>
+      <c r="F6" s="40">
         <f>IF(E6/$D$6="- ",0,E6/$D$6)</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="G6" s="20">
         <v>46</v>
@@ -1731,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R6" s="40" t="e">
         <f>IF(Q6/$D$6="- ",0,Q6/$D$6)</f>
@@ -1766,12 +1758,12 @@
       <c r="D7" s="36">
         <v>16</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="40" t="e">
+      <c r="E7" s="20">
+        <v>8</v>
+      </c>
+      <c r="F7" s="40">
         <f>IF(E7/$D$7="- ",0,E7/$D$7)</f>
-        <v>#VALUE!</v>
+        <v>0.5</v>
       </c>
       <c r="G7" s="20">
         <v>16</v>
@@ -1805,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R7" s="40" t="e">
         <f>IF(Q7/$D$7="- ",0,Q7/$D$7)</f>
@@ -1836,12 +1828,12 @@
       <c r="D8" s="36">
         <v>5</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="40" t="e">
+      <c r="E8" s="20">
+        <v>5</v>
+      </c>
+      <c r="F8" s="40">
         <f>IF(E8/$D$8="- ",0,E8/$D$8)</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="G8" s="20">
         <v>5</v>
@@ -1875,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R8" s="40" t="e">
         <f>IF(Q8/$D$8="- ",0,Q8/$D$8)</f>
@@ -1910,12 +1902,12 @@
       <c r="D9" s="36">
         <v>5</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="40" t="e">
+      <c r="E9" s="20">
+        <v>5</v>
+      </c>
+      <c r="F9" s="40">
         <f>IF(E9/$D$9="- ",0,E9/$D$9)</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="G9" s="20">
         <v>5</v>
@@ -1949,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R9" s="40" t="e">
         <f>IF(Q9/$D$9="- ",0,Q9/$D$9)</f>
@@ -1980,12 +1972,12 @@
       <c r="D10" s="36">
         <v>27</v>
       </c>
-      <c r="E10" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="40" t="e">
+      <c r="E10" s="20">
+        <v>27</v>
+      </c>
+      <c r="F10" s="40">
         <f>IF(E10/$D$10="- ",0,E10/$D$10)</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="G10" s="20">
         <v>27</v>
@@ -2019,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R10" s="40" t="e">
         <f>IF(Q10/$D$10="- ",0,Q10/$D$10)</f>
@@ -2050,12 +2042,12 @@
       <c r="D11" s="36">
         <v>11</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="40" t="e">
+      <c r="E11" s="20">
+        <v>11</v>
+      </c>
+      <c r="F11" s="40">
         <f>IF(E11/$D$11="- ",0,E11/$D$11)</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="G11" s="20">
         <v>11</v>
@@ -2089,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R11" s="40" t="e">
         <f>IF(Q11/$D$11="- ",0,Q11/$D$11)</f>
@@ -2120,12 +2112,12 @@
       <c r="D12" s="36">
         <v>22</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="40" t="e">
+      <c r="E12" s="20">
+        <v>11</v>
+      </c>
+      <c r="F12" s="40">
         <f>IF(E12/$D$12="- ",0,E12/$D$12)</f>
-        <v>#VALUE!</v>
+        <v>0.5</v>
       </c>
       <c r="G12" s="20">
         <v>22</v>
@@ -2159,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R12" s="40" t="e">
         <f>IF(Q12/$D$12="- ",0,Q12/$D$12)</f>
@@ -2190,12 +2182,12 @@
       <c r="D13" s="36">
         <v>11</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="40" t="e">
+      <c r="E13" s="20">
+        <v>11</v>
+      </c>
+      <c r="F13" s="40">
         <f>IF(E13/$D$13="- ",0,E13/$D$13)</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="G13" s="20">
         <v>11</v>
@@ -2229,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R13" s="40" t="e">
         <f>IF(Q13/$D$13="- ",0,Q13/$D$13)</f>
@@ -2260,12 +2252,12 @@
       <c r="D14" s="36">
         <v>11</v>
       </c>
-      <c r="E14" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="40" t="e">
+      <c r="E14" s="20">
+        <v>11</v>
+      </c>
+      <c r="F14" s="40">
         <f>IF(E14/$D$14="- ",0,E14/$D$14)</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="G14" s="20">
         <v>11</v>
@@ -2299,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R14" s="40" t="e">
         <f>IF(Q14/$D$14="- ",0,Q14/$D$14)</f>
@@ -2330,12 +2322,12 @@
       <c r="D15" s="36">
         <v>65</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="40" t="e">
+      <c r="E15" s="20">
+        <v>65</v>
+      </c>
+      <c r="F15" s="40">
         <f>IF(E15/$D$15="- ",0,E15/$D$15)</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="G15" s="20">
         <v>65</v>
@@ -2369,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R15" s="40" t="e">
         <f>IF(Q15/$D$15="- ",0,Q15/$D$15)</f>
@@ -2400,12 +2392,12 @@
       <c r="D16" s="36">
         <v>11</v>
       </c>
-      <c r="E16" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="40" t="e">
+      <c r="E16" s="20">
+        <v>11</v>
+      </c>
+      <c r="F16" s="40">
         <f>IF(E16/$D$16="- ",0,E16/$D$16)</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="G16" s="20">
         <v>11</v>
@@ -2439,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R16" s="40" t="e">
         <f>IF(Q16/$D$16="- ",0,Q16/$D$16)</f>
@@ -2470,12 +2462,12 @@
       <c r="D17" s="36">
         <v>11</v>
       </c>
-      <c r="E17" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="40" t="e">
+      <c r="E17" s="20">
+        <v>11</v>
+      </c>
+      <c r="F17" s="40">
         <f>IF(E17/$D$17="- ",0,E17/$D$17)</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="G17" s="20">
         <v>11</v>
@@ -2509,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R17" s="40" t="e">
         <f>IF(Q17/$D$17="- ",0,Q17/$D$17)</f>
@@ -2540,12 +2532,12 @@
       <c r="D18" s="36">
         <v>1</v>
       </c>
-      <c r="E18" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="40" t="e">
+      <c r="E18" s="20">
+        <v>1</v>
+      </c>
+      <c r="F18" s="40">
         <f>IF(E18/$D$18="- ",0,E18/$D$18)</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="G18" s="20">
         <v>1</v>
@@ -2579,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R18" s="40" t="e">
         <f>IF(Q18/$D$18="- ",0,Q18/$D$18)</f>
@@ -2610,12 +2602,12 @@
       <c r="D19" s="36">
         <v>1</v>
       </c>
-      <c r="E19" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="40" t="e">
+      <c r="E19" s="20">
+        <v>1</v>
+      </c>
+      <c r="F19" s="40">
         <f>IF(E19/$D$19="- ",0,E19/$D$19)</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="G19" s="20">
         <v>1</v>
@@ -2649,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R19" s="40" t="e">
         <f>IF(Q19/$D$19="- ",0,Q19/$D$19)</f>
@@ -2680,12 +2672,12 @@
       <c r="D20" s="36">
         <v>1</v>
       </c>
-      <c r="E20" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="40" t="e">
+      <c r="E20" s="20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="40">
         <f>IF(E20/$D$20="- ",0,E20/$D$20)</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="G20" s="20">
         <v>1</v>
@@ -2719,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R20" s="40" t="e">
         <f>IF(Q20/$D$20="- ",0,Q20/$D$20)</f>
@@ -2750,12 +2742,12 @@
       <c r="D21" s="36">
         <v>8</v>
       </c>
-      <c r="E21" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="40" t="e">
+      <c r="E21" s="20">
+        <v>4</v>
+      </c>
+      <c r="F21" s="40">
         <f>IF(E21/$D$21="- ",0,E21/$D$21)</f>
-        <v>#VALUE!</v>
+        <v>0.5</v>
       </c>
       <c r="G21" s="20">
         <v>8</v>
@@ -2789,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R21" s="40" t="e">
         <f>IF(Q21/$D$21="- ",0,Q21/$D$21)</f>
@@ -2820,12 +2812,12 @@
       <c r="D22" s="36">
         <v>22</v>
       </c>
-      <c r="E22" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="40" t="e">
+      <c r="E22" s="20">
+        <v>11</v>
+      </c>
+      <c r="F22" s="40">
         <f>IF(E22/$D$22="- ",0,E22/$D$22)</f>
-        <v>#VALUE!</v>
+        <v>0.5</v>
       </c>
       <c r="G22" s="20">
         <v>22</v>
@@ -2859,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R22" s="40" t="e">
         <f>IF(Q22/$D$22="- ",0,Q22/$D$22)</f>
@@ -2890,12 +2882,12 @@
       <c r="D23" s="36">
         <v>11</v>
       </c>
-      <c r="E23" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="40" t="e">
+      <c r="E23" s="28">
+        <v>11</v>
+      </c>
+      <c r="F23" s="40">
         <f>IF(E23/$D$23="- ",0,E23/$D$23)</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="G23" s="20">
         <v>11</v>
@@ -2929,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R23" s="40" t="e">
         <f>IF(Q23/$D$23="- ",0,Q23/$D$23)</f>
@@ -3025,12 +3017,12 @@
       <c r="D25" s="60">
         <v>479</v>
       </c>
-      <c r="E25" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="40" t="e">
+      <c r="E25" s="51">
+        <v>479</v>
+      </c>
+      <c r="F25" s="40">
         <f>IF(E25/$D$25="- ",0,E25/$D$25)</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="G25" s="21">
         <v>479</v>
@@ -3064,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R25" s="40" t="e">
         <f>IF(Q25/$D$25="- ",0,Q25/$D$25)</f>
@@ -3095,12 +3087,12 @@
       <c r="D26" s="60">
         <v>479</v>
       </c>
-      <c r="E26" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="40" t="e">
+      <c r="E26" s="21">
+        <v>479</v>
+      </c>
+      <c r="F26" s="40">
         <f>IF(E26/$D$26="- ",0,E26/$D$26)</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="G26" s="21">
         <v>479</v>
@@ -3134,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="R26" s="40" t="e">
         <f>IF(Q26/$D$26="- ",0,Q26/$D$26)</f>
@@ -3165,12 +3157,12 @@
       <c r="D27" s="61">
         <v>479</v>
       </c>
-      <c r="E27" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="58" t="e">
+      <c r="E27" s="22">
+        <v>479</v>
+      </c>
+      <c r="F27" s="58">
         <f>IF(E27/$D$27="- ",0,E27/$D$27)</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="G27" s="22">
         <v>479</v>
@@ -3204,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="R27" s="58" t="e">
         <f>IF(Q27/$D$27="- ",0,Q27/$D$27)</f>
@@ -3231,24 +3223,31 @@
         <v>53</v>
       </c>
       <c r="D28" s="61"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="65"/>
-      <c r="R28" s="66"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="80"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="80"/>
       <c r="S28" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -3262,13 +3261,6 @@
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.1875" right="0.11811023622047245" top="0.47499999999999998" bottom="0.5625" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3321,10 +3313,10 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="70"/>
+      <c r="A2" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="68"/>
       <c r="C2" s="23" t="s">
         <v>48</v>
       </c>
@@ -3332,24 +3324,24 @@
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
-      <c r="H2" s="80">
+      <c r="H2" s="78">
         <v>1</v>
       </c>
-      <c r="I2" s="80"/>
+      <c r="I2" s="78"/>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
       <c r="L2" s="24"/>
       <c r="M2" s="24"/>
       <c r="N2" s="24"/>
-      <c r="O2" s="75" t="s">
+      <c r="O2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="77" t="s">
+      <c r="P2" s="74"/>
+      <c r="Q2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="78"/>
-      <c r="S2" s="79"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="77"/>
       <c r="T2" s="2"/>
       <c r="U2" s="4"/>
       <c r="V2" s="5" t="s">
@@ -3361,10 +3353,10 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="27.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="72"/>
+      <c r="B3" s="70"/>
       <c r="C3" s="25" t="s">
         <v>5</v>
       </c>
@@ -3381,10 +3373,10 @@
       <c r="N3" s="26"/>
       <c r="O3" s="26"/>
       <c r="P3" s="26"/>
-      <c r="Q3" s="73" t="s">
+      <c r="Q3" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="74"/>
+      <c r="R3" s="72"/>
       <c r="S3" s="52">
         <f>SUMPRODUCT(B6:B23,S6:S23)</f>
         <v>0.03</v>
@@ -3412,34 +3404,34 @@
         <v>11</v>
       </c>
       <c r="D4" s="43"/>
-      <c r="E4" s="67">
+      <c r="E4" s="65">
         <v>44501</v>
       </c>
-      <c r="F4" s="68"/>
-      <c r="G4" s="67">
+      <c r="F4" s="66"/>
+      <c r="G4" s="65">
         <v>44502</v>
       </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="67">
+      <c r="H4" s="66"/>
+      <c r="I4" s="65">
         <v>44503</v>
       </c>
-      <c r="J4" s="68"/>
-      <c r="K4" s="67">
+      <c r="J4" s="66"/>
+      <c r="K4" s="65">
         <v>44504</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="67">
+      <c r="L4" s="66"/>
+      <c r="M4" s="65">
         <v>44505</v>
       </c>
-      <c r="N4" s="68"/>
-      <c r="O4" s="67">
+      <c r="N4" s="66"/>
+      <c r="O4" s="65">
         <v>44506</v>
       </c>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="67">
+      <c r="P4" s="66"/>
+      <c r="Q4" s="65">
         <v>44507</v>
       </c>
-      <c r="R4" s="68"/>
+      <c r="R4" s="66"/>
       <c r="S4" s="53" t="s">
         <v>50</v>
       </c>
@@ -4870,24 +4862,31 @@
         <v>53</v>
       </c>
       <c r="D28" s="61"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="65"/>
-      <c r="R28" s="66"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="80"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="80"/>
       <c r="S28" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="A2:B2"/>
@@ -4901,13 +4900,6 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.47499999999999998" bottom="0.61250000000000004" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4959,10 +4951,10 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="70"/>
+      <c r="A2" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="68"/>
       <c r="C2" s="23" t="s">
         <v>49</v>
       </c>
@@ -4970,24 +4962,24 @@
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
-      <c r="H2" s="80">
+      <c r="H2" s="78">
         <v>1</v>
       </c>
-      <c r="I2" s="80"/>
+      <c r="I2" s="78"/>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
       <c r="L2" s="24"/>
       <c r="M2" s="24"/>
       <c r="N2" s="24"/>
-      <c r="O2" s="75" t="s">
+      <c r="O2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="77" t="s">
+      <c r="P2" s="74"/>
+      <c r="Q2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="78"/>
-      <c r="S2" s="79"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="77"/>
       <c r="T2" s="2"/>
       <c r="U2" s="4"/>
       <c r="V2" s="5" t="s">
@@ -4999,10 +4991,10 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="27.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="72"/>
+      <c r="B3" s="70"/>
       <c r="C3" s="25" t="s">
         <v>5</v>
       </c>
@@ -5019,10 +5011,10 @@
       <c r="N3" s="26"/>
       <c r="O3" s="26"/>
       <c r="P3" s="26"/>
-      <c r="Q3" s="73" t="s">
+      <c r="Q3" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="74"/>
+      <c r="R3" s="72"/>
       <c r="S3" s="52">
         <f>SUMPRODUCT(B6:B23,S6:S23)</f>
         <v>0.03</v>
@@ -5050,34 +5042,34 @@
         <v>11</v>
       </c>
       <c r="D4" s="43"/>
-      <c r="E4" s="67">
+      <c r="E4" s="65">
         <v>44501</v>
       </c>
-      <c r="F4" s="68"/>
-      <c r="G4" s="67">
+      <c r="F4" s="66"/>
+      <c r="G4" s="65">
         <v>44502</v>
       </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="67">
+      <c r="H4" s="66"/>
+      <c r="I4" s="65">
         <v>44503</v>
       </c>
-      <c r="J4" s="68"/>
-      <c r="K4" s="67">
+      <c r="J4" s="66"/>
+      <c r="K4" s="65">
         <v>44504</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="67">
+      <c r="L4" s="66"/>
+      <c r="M4" s="65">
         <v>44505</v>
       </c>
-      <c r="N4" s="68"/>
-      <c r="O4" s="67">
+      <c r="N4" s="66"/>
+      <c r="O4" s="65">
         <v>44506</v>
       </c>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="67">
+      <c r="P4" s="66"/>
+      <c r="Q4" s="65">
         <v>44507</v>
       </c>
-      <c r="R4" s="68"/>
+      <c r="R4" s="66"/>
       <c r="S4" s="53" t="s">
         <v>50</v>
       </c>
@@ -6508,24 +6500,31 @@
         <v>53</v>
       </c>
       <c r="D28" s="61"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="65"/>
-      <c r="R28" s="66"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="80"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="80"/>
       <c r="S28" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="A2:B2"/>
@@ -6539,13 +6538,6 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.47499999999999998" bottom="0.61250000000000004" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6598,10 +6590,10 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="70"/>
+      <c r="A2" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="68"/>
       <c r="C2" s="23" t="s">
         <v>16</v>
       </c>
@@ -6609,24 +6601,24 @@
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
-      <c r="H2" s="80">
+      <c r="H2" s="78">
         <v>1</v>
       </c>
-      <c r="I2" s="80"/>
+      <c r="I2" s="78"/>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
       <c r="L2" s="24"/>
       <c r="M2" s="24"/>
       <c r="N2" s="24"/>
-      <c r="O2" s="75" t="s">
+      <c r="O2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="77" t="s">
+      <c r="P2" s="74"/>
+      <c r="Q2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="78"/>
-      <c r="S2" s="79"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="77"/>
       <c r="T2" s="2"/>
       <c r="U2" s="4"/>
       <c r="V2" s="5" t="s">
@@ -6638,10 +6630,10 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="27.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="72"/>
+      <c r="B3" s="70"/>
       <c r="C3" s="25" t="s">
         <v>5</v>
       </c>
@@ -6658,10 +6650,10 @@
       <c r="N3" s="26"/>
       <c r="O3" s="26"/>
       <c r="P3" s="26"/>
-      <c r="Q3" s="73" t="s">
+      <c r="Q3" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="74"/>
+      <c r="R3" s="72"/>
       <c r="S3" s="52">
         <f>SUMPRODUCT(B6:B23,S6:S23)</f>
         <v>0.03</v>
@@ -6689,34 +6681,34 @@
         <v>11</v>
       </c>
       <c r="D4" s="43"/>
-      <c r="E4" s="67">
+      <c r="E4" s="65">
         <v>44501</v>
       </c>
-      <c r="F4" s="68"/>
-      <c r="G4" s="67">
+      <c r="F4" s="66"/>
+      <c r="G4" s="65">
         <v>44502</v>
       </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="67">
+      <c r="H4" s="66"/>
+      <c r="I4" s="65">
         <v>44503</v>
       </c>
-      <c r="J4" s="68"/>
-      <c r="K4" s="67">
+      <c r="J4" s="66"/>
+      <c r="K4" s="65">
         <v>44504</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="67">
+      <c r="L4" s="66"/>
+      <c r="M4" s="65">
         <v>44505</v>
       </c>
-      <c r="N4" s="68"/>
-      <c r="O4" s="67">
+      <c r="N4" s="66"/>
+      <c r="O4" s="65">
         <v>44506</v>
       </c>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="67">
+      <c r="P4" s="66"/>
+      <c r="Q4" s="65">
         <v>44507</v>
       </c>
-      <c r="R4" s="68"/>
+      <c r="R4" s="66"/>
       <c r="S4" s="53" t="s">
         <v>50</v>
       </c>
@@ -8147,24 +8139,31 @@
         <v>53</v>
       </c>
       <c r="D28" s="61"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="65"/>
-      <c r="R28" s="66"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="80"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="80"/>
       <c r="S28" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="A2:B2"/>
@@ -8178,13 +8177,6 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.11811023622047245" right="0.21249999999999999" top="0.47499999999999998" bottom="0.51875000000000004" header="0.31496062992125984" footer="0.31496062992125984"/>
